--- a/2020/Stock Imei/tulip-2/New Microsoft Office Excel Worksheet.xlsx
+++ b/2020/Stock Imei/tulip-2/New Microsoft Office Excel Worksheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>b24</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>d54+</t>
+  </si>
+  <si>
+    <t>i65</t>
+  </si>
+  <si>
+    <t>z15</t>
   </si>
 </sst>
 </file>
@@ -439,14 +445,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="3" customFormat="1">
@@ -459,8 +465,12 @@
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -487,8 +497,12 @@
       <c r="C2" s="4">
         <v>354500108602047</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="4">
+        <v>357486101219129</v>
+      </c>
+      <c r="E2" s="4">
+        <v>359376101331180</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -515,8 +529,12 @@
       <c r="C3" s="4">
         <v>354500109345109</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="4">
+        <v>357486101117182</v>
+      </c>
+      <c r="E3" s="4">
+        <v>359376101511344</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -543,7 +561,9 @@
       <c r="C4" s="4">
         <v>354500109226846</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4">
+        <v>357486101216703</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -571,7 +591,9 @@
       <c r="C5" s="4">
         <v>354500109225947</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4">
+        <v>357486101217727</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>

--- a/2020/Stock Imei/tulip-2/New Microsoft Office Excel Worksheet.xlsx
+++ b/2020/Stock Imei/tulip-2/New Microsoft Office Excel Worksheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>b24</t>
   </si>
@@ -67,6 +67,24 @@
   </si>
   <si>
     <t>z15</t>
+  </si>
+  <si>
+    <t>d37</t>
+  </si>
+  <si>
+    <t>i74</t>
+  </si>
+  <si>
+    <t>bl97</t>
+  </si>
+  <si>
+    <t>b12+</t>
+  </si>
+  <si>
+    <t>b65</t>
+  </si>
+  <si>
+    <t>z20</t>
   </si>
 </sst>
 </file>
@@ -446,13 +464,13 @@
   <dimension ref="A1:T115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="3" customFormat="1">
@@ -471,13 +489,27 @@
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -503,13 +535,27 @@
       <c r="E2" s="4">
         <v>359376101331180</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="F2" s="4">
+        <v>357654105415049</v>
+      </c>
+      <c r="G2" s="4">
+        <v>359999101446706</v>
+      </c>
+      <c r="H2" s="4">
+        <v>357655105029508</v>
+      </c>
+      <c r="I2" s="4">
+        <v>359311090420736</v>
+      </c>
+      <c r="J2" s="4">
+        <v>353428112075748</v>
+      </c>
+      <c r="K2" s="4">
+        <v>357653106490787</v>
+      </c>
+      <c r="L2" s="4">
+        <v>358126101353648</v>
+      </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -535,13 +581,25 @@
       <c r="E3" s="4">
         <v>359376101511344</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="F3" s="4">
+        <v>357654105295508</v>
+      </c>
+      <c r="G3" s="4">
+        <v>359999101441921</v>
+      </c>
+      <c r="H3" s="4">
+        <v>357655105031264</v>
+      </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="J3" s="4">
+        <v>353428112075763</v>
+      </c>
+      <c r="K3" s="4">
+        <v>357653106252666</v>
+      </c>
+      <c r="L3" s="4">
+        <v>358126101354885</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -565,12 +623,22 @@
         <v>357486101216703</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="F4" s="4">
+        <v>357654105273729</v>
+      </c>
+      <c r="G4" s="4">
+        <v>359999101427581</v>
+      </c>
+      <c r="H4" s="4">
+        <v>357655105083760</v>
+      </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="J4" s="4">
+        <v>353428112000308</v>
+      </c>
+      <c r="K4" s="4">
+        <v>357653106248763</v>
+      </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -595,12 +663,20 @@
         <v>357486101217727</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4">
+        <v>357654105274685</v>
+      </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4">
+        <v>357655105087084</v>
+      </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="J5" s="4">
+        <v>353428112074220</v>
+      </c>
+      <c r="K5" s="4">
+        <v>357653104936500</v>
+      </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -623,12 +699,18 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4">
+        <v>357654105273620</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="J6" s="4">
+        <v>353428112080102</v>
+      </c>
+      <c r="K6" s="4">
+        <v>357653106651727</v>
+      </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -651,12 +733,18 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4">
+        <v>357654105274040</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="J7" s="4">
+        <v>353428110202302</v>
+      </c>
+      <c r="K7" s="4">
+        <v>357653106486421</v>
+      </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -679,12 +767,18 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4">
+        <v>357654105280187</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="J8" s="4">
+        <v>353428112000282</v>
+      </c>
+      <c r="K8" s="4">
+        <v>357653106251304</v>
+      </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -707,11 +801,15 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4">
+        <v>357654105280427</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="J9" s="4">
+        <v>353428110205487</v>
+      </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -739,7 +837,9 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="J10" s="4">
+        <v>353428110227804</v>
+      </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -767,7 +867,9 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="J11" s="4">
+        <v>353428112063983</v>
+      </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -795,7 +897,9 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="J12" s="4">
+        <v>353428112080128</v>
+      </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -823,7 +927,9 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="J13" s="4">
+        <v>353428112000266</v>
+      </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -851,7 +957,9 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="J14" s="4">
+        <v>353428112075789</v>
+      </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -877,7 +985,9 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="J15" s="4">
+        <v>353428112087560</v>
+      </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
